--- a/프로젝트 API 문서/RestAPI List.xlsx
+++ b/프로젝트 API 문서/RestAPI List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksgn5\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksgn5\OneDrive\바탕 화면\Security-docs\프로젝트 API 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD5C2C7-FF84-4A9F-AF33-07A366D95970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093919D-C8B3-43A0-A746-4213A0C154AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28560" windowHeight="15825" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
+    <workbookView xWindow="30345" yWindow="810" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>메인페이지(로그인전)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>ouath 로그인(나중에 결정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,7 +1442,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1480,6 +1484,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>

--- a/프로젝트 API 문서/RestAPI List.xlsx
+++ b/프로젝트 API 문서/RestAPI List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksgn5\OneDrive\바탕 화면\Security-docs\프로젝트 API 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-gyeongjae/Desktop/Graduations/Security-docs/프로젝트 API 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093919D-C8B3-43A0-A746-4213A0C154AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E35439-123A-D24D-9940-00318D1375A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="810" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>메인페이지(로그인전)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cont/news</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,22 @@
   </si>
   <si>
     <t>회원가입 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전달 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추후 다른단어 교체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,7 +348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="ko-Kore-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -442,7 +454,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="ko-Kore-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508889567"/>
@@ -501,7 +513,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
+            <a:endParaRPr lang="ko-Kore-KR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508889151"/>
@@ -549,7 +561,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
+      <a:endParaRPr lang="ko-Kore-KR"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1439,23 +1451,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31ECD4EB-599C-534A-A0BB-8DBE5A2E2D56}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1468,10 +1481,13 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1479,17 +1495,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1497,150 +1519,150 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/프로젝트 API 문서/RestAPI List.xlsx
+++ b/프로젝트 API 문서/RestAPI List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-gyeongjae/Desktop/Graduations/Security-docs/프로젝트 API 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E35439-123A-D24D-9940-00318D1375A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32747BB3-2288-F441-88A4-D4F135814EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>메인페이지(로그인전)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>추후 다른단어 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/login/oauth2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1454,7 +1458,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1532,6 +1536,9 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">

--- a/프로젝트 API 문서/RestAPI List.xlsx
+++ b/프로젝트 API 문서/RestAPI List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-gyeongjae/Desktop/Graduations/Security-docs/프로젝트 API 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32747BB3-2288-F441-88A4-D4F135814EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FD58B-151A-6340-AB95-567704BEACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>메인페이지(로그인전)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,46 +154,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/cardlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/cardlist/card1dist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>card1dist,card2dist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/transfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cont/securitynotis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/loan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/loan/success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/transfer/success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/transfer/securityauth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +207,42 @@
   </si>
   <si>
     <t>/users/login/oauth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sangmyungbank.com/users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/cardlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/cardlist/card1dist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/transactions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/transfers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/transfers/securityauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/transfers/success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/loans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/loans/success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1458,7 +1462,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1485,7 +1489,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>19</v>
@@ -1503,16 +1507,19 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1523,21 +1530,21 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1545,18 +1552,18 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1602,7 +1609,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1610,7 +1617,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1618,10 +1625,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1629,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -1637,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -1645,7 +1652,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1653,7 +1660,7 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1661,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -1669,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/프로젝트 API 문서/RestAPI List.xlsx
+++ b/프로젝트 API 문서/RestAPI List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-gyeongjae/Desktop/Graduations/Security-docs/프로젝트 API 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FD58B-151A-6340-AB95-567704BEACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4E4CD-4FB6-E74F-967C-5E2C21C7E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>메인페이지(로그인전)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cont/customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1~100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cont/securitynotis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/product</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추후 다른단어 교체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,23 +214,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users/transfers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/transfers/securityauth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users/transfers/success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users/loans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/users/loans/success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont/counsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont/securitynotices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/accounts/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/accounts/transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/accounts/transaction/securityauth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/accounts/transaction/success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$B$28</c:f>
+              <c:f>Sheet1!$B$29:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -393,7 +401,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29</c:f>
+              <c:f>Sheet1!$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1459,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31ECD4EB-599C-534A-A0BB-8DBE5A2E2D56}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1489,7 +1497,7 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>19</v>
@@ -1508,18 +1516,18 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1530,21 +1538,21 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1552,18 +1560,18 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1590,10 +1598,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1601,7 +1609,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -1609,15 +1617,15 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1625,10 +1633,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1636,47 +1644,55 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
-        <v>51</v>
+      <c r="D31" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/프로젝트 API 문서/RestAPI List.xlsx
+++ b/프로젝트 API 문서/RestAPI List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-gyeongjae/Desktop/Graduations/Security-docs/프로젝트 API 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4E4CD-4FB6-E74F-967C-5E2C21C7E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE3A5C9-0B01-B946-AE7E-DE955CB518AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31ECD4EB-599C-534A-A0BB-8DBE5A2E2D56}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>

--- a/프로젝트 API 문서/RestAPI List.xlsx
+++ b/프로젝트 API 문서/RestAPI List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-gyeongjae/Desktop/Graduations/Security-docs/프로젝트 API 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE3A5C9-0B01-B946-AE7E-DE955CB518AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863DA15E-D9FF-EF49-855B-17D139F8D7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" activeTab="1" xr2:uid="{E694652C-9148-3840-A4B3-A701D42115EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cont/securitynotices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계좌 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +247,10 @@
   </si>
   <si>
     <t>/users/accounts/transaction/success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont/security-notices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
@@ -1617,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -1649,10 +1649,10 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -1660,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -1668,7 +1668,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -1676,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:5">
